--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621933.5764778574</v>
+        <v>618368.0746043077</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10696672.81802138</v>
+        <v>10693132.94167887</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>348.7957164298421</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>122.4360853739818</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.6217034654825</v>
+        <v>132.3187953056055</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>108.1045920014103</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>273.0891598015559</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>203.0747586157685</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -908,13 +908,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>103.1713788085149</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>100.8996439579079</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>42.63833102172892</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>364.5922541473097</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>354.7617209972992</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>26.24962422171318</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>175.6983641828944</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>300.3267059552355</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
@@ -1379,16 +1379,16 @@
         <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372795</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362807</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>319.8444572927816</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1528,22 @@
         <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599388</v>
+        <v>40.78297506860741</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177853</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465764</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442491</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>23.85638230815963</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
@@ -1588,13 +1588,13 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>171.1886243209707</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
-        <v>88.84217165265221</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
-        <v>92.52707985173048</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>93.16084888545984</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730208</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414461</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404463</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838893</v>
+        <v>24.17382596574988</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828905</v>
+        <v>52.06849973565001</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431737</v>
+        <v>70.57601873167833</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459978</v>
+        <v>55.72314698196074</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643951</v>
+        <v>41.29686219380046</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931862</v>
+        <v>41.22330424667958</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908588</v>
+        <v>42.97275566644684</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147802</v>
+        <v>53.79159358883898</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805006</v>
+        <v>41.14384575541102</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922199</v>
+        <v>18.98356133658295</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367791</v>
+        <v>9.88205970103887</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920523</v>
+        <v>88.00800320656619</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,7 +3512,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412925</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
         <v>236.9290753658111</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978639</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-8.230827700563021e-13</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,7 +3986,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412925</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
         <v>236.9290753658111</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978639</v>
@@ -4201,7 +4201,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821.831354821059</v>
+        <v>999.032655102558</v>
       </c>
       <c r="C2" t="n">
-        <v>469.51244933637</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="D2" t="n">
-        <v>469.51244933637</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E2" t="n">
-        <v>469.51244933637</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634772</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475495</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475495</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>188.145432303583</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>681.4657240221119</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>1219.724509032204</v>
+        <v>1058.738054302316</v>
       </c>
       <c r="N2" t="n">
-        <v>1747.535792669667</v>
+        <v>1572.340732912005</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596799</v>
+        <v>2012.380333804333</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678798</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="T2" t="n">
-        <v>2008.269414678798</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="U2" t="n">
-        <v>2008.269414678798</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="V2" t="n">
-        <v>2008.269414678798</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="W2" t="n">
-        <v>2008.269414678798</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="X2" t="n">
-        <v>1618.816809611855</v>
+        <v>1395.523364181957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1222.326100532456</v>
+        <v>999.032655102558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>574.3337716287374</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475495</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475495</v>
+        <v>158.769525982835</v>
       </c>
       <c r="L3" t="n">
-        <v>43.49565939475495</v>
+        <v>642.3356118811482</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653859</v>
+        <v>1155.938290490836</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875478</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413231</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784298</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917585</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675965</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y3" t="n">
-        <v>986.9239692675965</v>
+        <v>707.9891204222783</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="C4" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="D4" t="n">
-        <v>789.3095688388221</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E4" t="n">
-        <v>633.7507566980246</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F4" t="n">
-        <v>476.4248219109975</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G4" t="n">
-        <v>308.1707680104431</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H4" t="n">
-        <v>152.6922169719371</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>583.330228098702</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>307.4825919355142</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="X4" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="Y4" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.577507043562</v>
+        <v>1537.64974772626</v>
       </c>
       <c r="C5" t="n">
-        <v>1661.577507043562</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="D5" t="n">
-        <v>1276.13637826023</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E5" t="n">
-        <v>873.552853376774</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475495</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475495</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K5" t="n">
-        <v>188.145432303583</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>188.145432303583</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>726.4042173136754</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N5" t="n">
-        <v>1254.215500951138</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465277</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596799</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023269</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023269</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="U5" t="n">
-        <v>2136.790056023269</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="V5" t="n">
-        <v>2136.790056023269</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="W5" t="n">
-        <v>1765.791020991557</v>
+        <v>1537.64974772626</v>
       </c>
       <c r="X5" t="n">
-        <v>1661.577507043562</v>
+        <v>1537.64974772626</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.577507043562</v>
+        <v>1537.64974772626</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.192785981317</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414092</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569814</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>363.2348054569814</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="M6" t="n">
-        <v>901.4935904670738</v>
+        <v>874.845071428253</v>
       </c>
       <c r="N6" t="n">
-        <v>1252.641318430369</v>
+        <v>921.5731989359458</v>
       </c>
       <c r="O6" t="n">
-        <v>1769.16160102135</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737747</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413231</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784298</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222783</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="C7" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="D7" t="n">
-        <v>843.5857067984603</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E7" t="n">
-        <v>688.0268946576628</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F7" t="n">
-        <v>530.7009598706356</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G7" t="n">
-        <v>362.4469059700812</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315751</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.9763418905753</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1792.867032114551</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="C8" t="n">
-        <v>1399.691530617481</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="D8" t="n">
         <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
         <v>185.6500870090788</v>
@@ -4805,22 +4805,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>173.6308686433316</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1403.703006901093</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.142036303753</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.142036303753</v>
+        <v>1014.250401834149</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1374.529131354181</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1960.027136360783</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="T10" t="n">
-        <v>510.2248569938795</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="U10" t="n">
-        <v>224.7860652357804</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>402.7261067268557</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1459.556716529488</v>
+        <v>1435.837779556535</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.556716529488</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>800.8136995685213</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550881</v>
+        <v>470.0264498312596</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312599</v>
+        <v>470.0264498312596</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654567</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654567</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5072,7 +5072,7 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579423</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
         <v>2405.267789429136</v>
@@ -5081,10 +5081,10 @@
         <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>2087.611459508386</v>
+        <v>2087.611459508387</v>
       </c>
       <c r="Y11" t="n">
-        <v>1762.917025575181</v>
+        <v>1764.536250121738</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>568.1699486069232</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>437.7543609454885</v>
+        <v>103.3140520158405</v>
       </c>
       <c r="C13" t="n">
-        <v>339.3455181576716</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>255.5086802063803</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>171.7461432117766</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>86.21648357094344</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>86.21648357094344</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581889</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118219</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138155</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814507</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128935</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.167348517029</v>
+        <v>936.0428256245442</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840476</v>
+        <v>741.8597555915622</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614191</v>
+        <v>530.3256286689337</v>
       </c>
       <c r="X13" t="n">
-        <v>551.166104490596</v>
+        <v>368.0415815981107</v>
       </c>
       <c r="Y13" t="n">
-        <v>551.166104490596</v>
+        <v>216.7257955609479</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1467.291089243225</v>
+        <v>1463.714265689664</v>
       </c>
       <c r="C14" t="n">
-        <v>1145.91186289235</v>
+        <v>1142.335039338787</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>828.6901857016487</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550881</v>
+        <v>655.772383357234</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312598</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5294,7 +5294,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.23910529302</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2921.499537967109</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.543083547901</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2737.543083547901</v>
+        <v>2405.267789429137</v>
       </c>
       <c r="W14" t="n">
-        <v>2438.340323662383</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X14" t="n">
-        <v>2120.683993741633</v>
+        <v>1788.408699622869</v>
       </c>
       <c r="Y14" t="n">
-        <v>1795.989559808428</v>
+        <v>1463.714265689664</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>596.176270190801</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>497.3392809709728</v>
+        <v>160.5279704919325</v>
       </c>
       <c r="C16" t="n">
-        <v>398.930438183156</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>315.0936002318646</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>231.3310632372609</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581895</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.410653902774</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118228</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138167</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1351.166230773348</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.243454087776</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>973.6009374758714</v>
+        <v>936.042825624544</v>
       </c>
       <c r="V16" t="n">
-        <v>973.6009374758714</v>
+        <v>741.8597555915621</v>
       </c>
       <c r="W16" t="n">
-        <v>762.0668105532429</v>
+        <v>530.3256286689336</v>
       </c>
       <c r="X16" t="n">
-        <v>762.0668105532429</v>
+        <v>368.0415815981105</v>
       </c>
       <c r="Y16" t="n">
-        <v>610.7510245160802</v>
+        <v>273.9397140370399</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924221</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5531,7 +5531,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5543,19 +5543,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5589,7 +5589,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
         <v>175.2341099238429</v>
@@ -5601,13 +5601,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5662,22 +5662,22 @@
         <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
         <v>623.4297566485498</v>
@@ -5686,7 +5686,7 @@
         <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5707,13 +5707,13 @@
         <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
         <v>289.463261197452</v>
@@ -5732,22 +5732,22 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
         <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5780,13 +5780,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.46733722469</v>
@@ -5826,28 +5826,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411552</v>
+        <v>490.2252314250076</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5899,31 +5899,31 @@
         <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343043</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655135</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072216</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5944,13 +5944,13 @@
         <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
         <v>289.463261197452</v>
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
@@ -5972,25 +5972,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803428</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6005,7 +6005,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
         <v>3105.956385205776</v>
@@ -6014,10 +6014,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
         <v>2855.219708188068</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
         <v>175.2341099238429</v>
@@ -6072,10 +6072,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6127,7 +6127,7 @@
         <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
         <v>149.5651460634914</v>
@@ -6136,34 +6136,34 @@
         <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462919</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P25" t="n">
-        <v>965.7235964838011</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.202162476281</v>
@@ -6190,7 +6190,7 @@
         <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218597</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390258</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>755.8323718938498</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1249.152663612379</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1888.204925386533</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2509.067570753568</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3390.346025506992</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1297.817576692272</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1953.595547902831</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6379,25 +6379,25 @@
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192014</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6421,10 +6421,10 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
         <v>594.597435602648</v>
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424154</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214273</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718129</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218618</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390279</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142194</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.7612945678984</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
         <v>670.0483496134135</v>
@@ -6473,40 +6473,40 @@
         <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1532.448062118649</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6598,7 +6598,7 @@
         <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
@@ -6610,25 +6610,25 @@
         <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746016</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232839</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6637,7 +6637,7 @@
         <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
         <v>1689.449032728252</v>
@@ -6646,25 +6646,25 @@
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835509</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076161</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741588</v>
+        <v>1287.81179740713</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786169</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423631</v>
+        <v>2404.684126952456</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043029</v>
+        <v>2844.723727844785</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901621</v>
+        <v>3192.911219976307</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.34117404257</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996513</v>
+        <v>365.671367692972</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918668</v>
+        <v>309.3853606404863</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823746</v>
+        <v>267.6713584245263</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123131</v>
+        <v>226.031657165254</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546506</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431919</v>
+        <v>86.73045008374203</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>256.6556820777737</v>
+        <v>225.4160927170975</v>
       </c>
       <c r="L34" t="n">
-        <v>526.0564146786437</v>
+        <v>389.5437325908973</v>
       </c>
       <c r="M34" t="n">
-        <v>817.6210857439779</v>
+        <v>575.8353109291613</v>
       </c>
       <c r="N34" t="n">
-        <v>1000.810719775187</v>
+        <v>870.6770655353534</v>
       </c>
       <c r="O34" t="n">
-        <v>1268.788579543965</v>
+        <v>1145.033953152044</v>
       </c>
       <c r="P34" t="n">
-        <v>1388.664745320544</v>
+        <v>1264.910118928623</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.785962625019</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395521</v>
+        <v>835.7257283273684</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000943</v>
+        <v>666.3144371400713</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124419</v>
+        <v>546.1532258045795</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584498</v>
+        <v>436.9602755027481</v>
       </c>
     </row>
     <row r="35">
@@ -6920,58 +6920,58 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404052</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
         <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -6999,10 +6999,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
         <v>199.803798091603</v>
@@ -7011,25 +7011,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860693</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7075,7 +7075,7 @@
         <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
         <v>149.5651460634914</v>
@@ -7084,28 +7084,28 @@
         <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072676</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485496</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O37" t="n">
         <v>974.9038003296512</v>
@@ -7138,7 +7138,7 @@
         <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7151,73 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404052</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403517</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040979</v>
       </c>
       <c r="O38" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933307</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7236,40 +7236,40 @@
         <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
         <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J39" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>174.7633905351325</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>802.5350401618138</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885599</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634916</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072676</v>
+        <v>87.33863074072687</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343052</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655144</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072225</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>965.7235964838011</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918815</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161908</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194235</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330095</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974528</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7433,28 +7433,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7497,16 +7497,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1606.310991511064</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885599</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634916</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072687</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222403</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960401</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567326</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879418</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296498</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918815</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161908</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194235</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330095</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974528</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7664,7 +7664,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
@@ -7676,13 +7676,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7722,7 +7722,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
@@ -7734,16 +7734,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462919</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>278.5901810446702</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.71782091847</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.009399256734</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O2" t="n">
-        <v>394.413955532311</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>213.7176129102069</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>93.79016463310016</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>533.3182154539896</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886035</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O5" t="n">
-        <v>541.0127429939344</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>300.2068661913383</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,19 +8301,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837487</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N6" t="n">
-        <v>440.0667875645656</v>
+        <v>132.5722416498159</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>270.6522400901343</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>194.0418287534719</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,19 +8538,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>621.5900809302183</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8772,10 +8772,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>163.9964000092958</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8784,10 +8784,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>173.3576105420024</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,13 +9003,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>192.2856137303845</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9021,10 +9021,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,7 +9249,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
@@ -9258,7 +9258,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9477,16 +9477,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>407.7697853345098</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9495,10 +9495,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,13 +9720,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9954,22 +9954,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>298.485290672186</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>314.1682372053019</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10431,13 +10431,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>187.5973797276333</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10665,7 +10665,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10674,13 +10674,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10829,7 +10829,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488206</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.2265410010273</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11145,19 +11145,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>464.9323088406971</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,19 +11382,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.08477990431553</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.603032301091389</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>56.64177929133135</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681704</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>58.98907082522945</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456102</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901693</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>156.2907529189183</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>61.34511236879334</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>37.1825307328137</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>56.64177929133132</v>
       </c>
     </row>
     <row r="17">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-1.238049662788398e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-1.151079231931362e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>930812.6642376812</v>
+        <v>929008.0213964002</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>930812.6642376812</v>
+        <v>929008.0213964002</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842349.0703900629</v>
+        <v>842349.070390063</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842349.070390063</v>
+        <v>842349.0703900631</v>
       </c>
     </row>
     <row r="7">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>396730.7918053849</v>
+      </c>
+      <c r="C2" t="n">
         <v>396730.791805385</v>
-      </c>
-      <c r="C2" t="n">
-        <v>396730.7918053849</v>
       </c>
       <c r="D2" t="n">
         <v>396730.7918053849</v>
       </c>
       <c r="E2" t="n">
-        <v>350589.8515336814</v>
+        <v>350589.8515336813</v>
       </c>
       <c r="F2" t="n">
         <v>350589.8515336813</v>
@@ -26329,28 +26329,28 @@
         <v>396730.791805385</v>
       </c>
       <c r="H2" t="n">
+        <v>396730.7918053848</v>
+      </c>
+      <c r="I2" t="n">
         <v>396730.7918053849</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>396730.791805385</v>
       </c>
-      <c r="J2" t="n">
-        <v>396730.7918053853</v>
-      </c>
       <c r="K2" t="n">
-        <v>396730.7918053854</v>
+        <v>396730.7918053849</v>
       </c>
       <c r="L2" t="n">
-        <v>396730.7918053858</v>
+        <v>396730.7918053857</v>
       </c>
       <c r="M2" t="n">
-        <v>396730.791805385</v>
+        <v>396730.7918053849</v>
       </c>
       <c r="N2" t="n">
         <v>396730.7918053849</v>
       </c>
       <c r="O2" t="n">
-        <v>396730.7918053849</v>
+        <v>396730.791805385</v>
       </c>
       <c r="P2" t="n">
         <v>396730.7918053849</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062201</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.325536682</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>6.227764970390124e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728552</v>
+        <v>62456.24177539678</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081114</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277125</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>151510.253476678</v>
+        <v>151510.2534766781</v>
       </c>
       <c r="F4" t="n">
         <v>151510.2534766781</v>
@@ -26442,10 +26442,10 @@
         <v>200019.6624326434</v>
       </c>
       <c r="K4" t="n">
-        <v>200019.6624326434</v>
+        <v>200019.6624326435</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.08853216</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26457,7 +26457,7 @@
         <v>199269.1699682603</v>
       </c>
       <c r="P4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682602</v>
       </c>
     </row>
     <row r="5">
@@ -26467,46 +26467,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551965</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84582.77024036384</v>
+        <v>-79629.7768123089</v>
       </c>
       <c r="C6" t="n">
-        <v>97622.17805149176</v>
+        <v>94228.88022174622</v>
       </c>
       <c r="D6" t="n">
-        <v>89301.33766592221</v>
+        <v>81565.04844253077</v>
       </c>
       <c r="E6" t="n">
-        <v>33771.01688311835</v>
+        <v>33561.28533642863</v>
       </c>
       <c r="F6" t="n">
-        <v>145893.5783571626</v>
+        <v>145683.8468104732</v>
       </c>
       <c r="G6" t="n">
         <v>91866.526984923</v>
       </c>
       <c r="H6" t="n">
-        <v>139291.8525216049</v>
+        <v>139291.8525216048</v>
       </c>
       <c r="I6" t="n">
-        <v>139291.8525216051</v>
+        <v>139291.852521605</v>
       </c>
       <c r="J6" t="n">
-        <v>-73750.06507568012</v>
+        <v>-67233.77992110739</v>
       </c>
       <c r="K6" t="n">
-        <v>133052.0841188224</v>
+        <v>133052.0841188219</v>
       </c>
       <c r="L6" t="n">
-        <v>77869.49518420176</v>
+        <v>73820.65797372938</v>
       </c>
       <c r="M6" t="n">
-        <v>97091.02306198202</v>
+        <v>96039.32805079385</v>
       </c>
       <c r="N6" t="n">
         <v>139291.852521605</v>
       </c>
       <c r="O6" t="n">
-        <v>111524.1584788337</v>
+        <v>111524.1584788338</v>
       </c>
       <c r="P6" t="n">
-        <v>139291.8525216049</v>
+        <v>139291.852521605</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,19 +26713,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,37 +26799,37 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443784</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443784</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095201</v>
+        <v>844.4391950293139</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014444</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.2816569208525</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
-        <v>7.784706212987656e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.6268397466069</v>
+        <v>78.07030221924597</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551346</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773712</v>
+        <v>659.3622249971648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.1268713042792</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.2816569208525</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
-        <v>7.784706212987656e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>40.44803005225657</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27397,7 +27397,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>216.249655829535</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.656667631069269</v>
+        <v>17.95957579094619</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,22 +27540,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>23.65888910788257</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>9.495244038962142</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27616,10 +27616,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>186.1689878663302</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>282.3867002077588</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27698,16 +27698,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>27.88843374682652</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>185.1777423863171</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>7.657574321493826</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.89754410697316</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>12.52732368409619</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>96.41235525203562</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>87.62118754448957</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28749,19 +28749,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.63600263452858</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634528595</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28983,13 +28983,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.636002634528666</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634528381</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5.63600263452949</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29235,10 +29235,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.636002634529405</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29299,7 +29299,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599623</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -29308,16 +29308,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.65052755599578</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
         <v>37.61298457733328</v>
@@ -29454,7 +29454,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431655</v>
       </c>
       <c r="K28" t="n">
         <v>93.99127447431646</v>
@@ -29533,10 +29533,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29545,16 +29545,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901266</v>
+        <v>30.27223765901311</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L32" t="n">
-        <v>86.27291196566421</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>43.49509683159977</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031371</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.97643844045338</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30174,13 +30174,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>5.636002634529518</v>
+      </c>
+      <c r="N37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
       <c r="O37" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.636002634529348</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.297982108279</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733463</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="42">
@@ -30615,40 +30615,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>5.636002634528168</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.297982108279</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,40 +30852,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>35.71049010668865</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34699,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O2" t="n">
-        <v>244.8501181082146</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>63.41616566928173</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.193229299766809</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>440.9310934046777</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O5" t="n">
-        <v>391.448905569838</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>155.7081677729461</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N6" t="n">
-        <v>354.694674710399</v>
+        <v>47.20012879564926</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>127.5938369108969</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>44.47799132937547</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,19 +35258,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>529.2029588809064</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>73.93605315237758</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35504,10 +35504,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225728</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488435</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2252668734663</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35741,10 +35741,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35969,7 +35969,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36045,19 +36045,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716074</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724868</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>318.1728500011765</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
@@ -36215,10 +36215,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133864</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M22" t="n">
-        <v>193.8093140873203</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36294,7 +36294,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36440,13 +36440,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36519,7 +36519,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565495</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36531,10 +36531,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724876</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>449.2589679877759</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
@@ -36604,16 +36604,16 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>273.3632145670549</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>205.7977317832971</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215748</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,16 +36841,16 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>474.7566830047994</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>221.480678316413</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044896</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338752</v>
+        <v>611.0832447409209</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>576.6378075765109</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066586</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273761</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>102.2252668734666</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>159.4555122371237</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>277.1281693097888</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.43320245060586</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37394,13 +37394,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37470,13 +37470,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683763</v>
+        <v>193.8093140873215</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
-        <v>169.9842521716083</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510934</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>113.782083667694</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.8093140873213</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634530243</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110588</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>372.2447499518083</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>88.29766032133814</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634530243</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>118.3721477934986</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
